--- a/Fase 2/Evidencias Grupales/ERS Requerimientos RepidChef.xlsx
+++ b/Fase 2/Evidencias Grupales/ERS Requerimientos RepidChef.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
   <si>
     <t>Documento de Requerimientos Funcionales y No Funcionales App RapidChef</t>
   </si>
@@ -82,9 +82,6 @@
   <si>
     <t xml:space="preserve">La aplicación debe sugerir recetas basadas en los ingredientes disponibles del usuario.
 </t>
-  </si>
-  <si>
-    <t>En curso</t>
   </si>
   <si>
     <t>R.4</t>
@@ -938,16 +935,16 @@
         <v>13</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="75.0" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>10</v>
@@ -956,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="75.0" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
@@ -980,22 +977,22 @@
         <v>11</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="75.0" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>10</v>
@@ -1004,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>13</v>
@@ -1016,10 +1013,10 @@
     <row r="11" ht="75.0" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>10</v>
@@ -1028,22 +1025,22 @@
         <v>11</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="75.0" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>10</v>
@@ -1052,334 +1049,334 @@
         <v>11</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="75.0" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="75.0" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="75.0" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="75.0" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="75.0" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" ht="75.0" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="75.0" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="75.0" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="75.0" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="75.0" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="D22" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="75.0" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" ht="75.0" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="75.0" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>10</v>
@@ -1388,22 +1385,22 @@
         <v>11</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>10</v>
@@ -1412,22 +1409,22 @@
         <v>11</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>10</v>
@@ -1436,46 +1433,46 @@
         <v>11</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" ht="75.0" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="75.0" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>10</v>
@@ -1484,109 +1481,109 @@
         <v>11</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="75.0" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="D32" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="75.0" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="D33" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="75.0" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>103</v>
-      </c>
       <c r="D34" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -2594,10 +2591,10 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -2626,10 +2623,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2658,10 +2655,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2690,10 +2687,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -2722,10 +2719,10 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -2757,7 +2754,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -2786,10 +2783,10 @@
     </row>
     <row r="7" ht="36.75" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
